--- a/DOWNLOADS/EDITAIS/U_925989_E_900092025_30-09-2025_10h00m/U_925989_E_900092025_30-09-2025_10h00m_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_925989_E_900092025_30-09-2025_10h00m/U_925989_E_900092025_30-09-2025_10h00m_master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>Nº</t>
   </si>
@@ -73,49 +73,19 @@
     <t>Impressora multifuncional Impressora Multifuncional Tipo Impressão: Jato Tinta, Resolução Impressão: 2.400 X 1.200DPI, Tensão Alimentação: BivoltV, Resolução Copiadora: 600 X 600DPI, Resolução Scanner: 600 X 600DPI, Conectividade: Usb 2.0 E Wifi, Tipo Papel: A3 / A2 / A1, Frequência: 50/60HZ, Capacidade Memória: 256MB</t>
   </si>
   <si>
-    <t>PROCESSADOR: O processador deverá ser última ou penúltima geração oferecida pelo fabricante (acima de 13º para INTEL e série 7000 para AMD); Deverá possuir, no mínimo, 06 (seis) núcleos e 12 (doze) threads de processamento com frequência máxima de no mínimo de 4.5 GHz; Memória cachê L3, no mínimo, 12 MB; Suportar memória 3200 Mhz É obrigatório declarar, na proposta, o modelo do processador ofertado; Memória RAM: Deverá possuir, no mínimo, 8 GB (oito gigabytes) de memória RAM instalados Memória RAM tipo DDR-4 com barramento mínimo de 3200 MHz ou superior; Capacidade máxima de expansão de, no mínimo, 40GB. BIOS BIOS desenvolvida pelo mesmo fabricante do equipamento ou ter direitos copyright sobre a BIOS, ou em regime de OEM, comprovados através de documento oficial do fabricante. O fabricante do equipamento, deverá ser totalmente responsável pela BIOS fornecida juntamente com a placa-mãe e pela atualização desta BIOS, devendo promover as alterações que se façam necessárias e corrigir problemas ou danos causados ao equipamento em razão dessa BIOS ou de procedimentos de atualização desta BIOS durante o período de garantia do equipamento; Deverá possuir mecanismo de hardware e, ou software ou, mesmo ambos em conjunto que, executem auto reparo da BIOS quando for detectada alguma quebra na integridade por existência de informações corrompidas ou adulteradas através de uma cópia da BIOS mantida no próprio hardware do equipamento; O fabricante deve ser registrado na "Membership List" do Unified Extensible Firmware Interface Fórum, acessível pelo website www.uefi.org/members, estando na categoria “Promoters”, de forma a atestar que os seus equipamentos estão em conformidade com a especificação UEFI 2.x ou superior. Possuir um campo com o número de série do equipamento e um campo editável que permita inserir uma identificação customizada, como número de patrimônio ou de serviço. Deverá possuir recursos de controle de permissão através de senhas. Deverá ser entregue com etiqueta com número de patrimônio fixada ao equipamento, Todos os equipamentos serão entregues com logo definido pela contratante gravado na BIOS; Estar em conformidade com a normativa NIST 800-147 baseado nos padrões de mercado de maneira a usar métodos de criptografia robusta para verificar a integridade do BIOS antes de passar o controle de execução a mesma; Software embarcado no BIOS com Funções de diagnóstico de problemas, que permite o teste do equipamento com independência do sistema operacional instalado, capaz de ser executado (inicializado) a partir da UEFI ou do Firmware do equipamento através do acionamento de tecla função (F1...F12), sendo possível informar através de tela gráfica o fabricante e modelo do equipamento, processador, memória e capacidade do disco. PLACA MÃE A placa mãe deve ser fabricada pelo próprio fabricante do microcomputador ou projetadas especificamente para o equipamento com direitos Copyright, não sendo aceito placas de livre comercialização no mercado, nem em regime de OEM; Possuir módulo TPM (Trusted Platform Module) versão 2.0 ou superior instalado de fábrica integrado à placa-mãe destinado ao armazenamento de senhas, certificados digitais e chaves criptográficas em conformidade com as especificações do Trusted Computing Group. Não será aceito solução via firmware TPM. ARMAZENAMENTO (uma) unidade do tipo SSD, de no mínimo, 512GB M.2 NVMe. CONTROLADORA DE REDE Uma interface de rede com conector RJ-45 fêmea integrado à placa-mãe, com função wake-on-lan instalada e em funcionamento, suportando taxa de transmissão de 10/100/1000 Mbps em modo full-duplex. Uma interface de rede wireless integrado à placa mãe, padrão 802.11ax dual band. Possuir interface Bluetooth 5.1 ou superior integrada que deverá ser certificada pela Anatel, em documento entregue junto com a proposta; Antena wi-fi 6 dupla-banda (Dual-Band) integrada. CONTROLADORA DE ÁUDIO: Interface de som integrada padrão High Definition Audio com conectores para microfone e fone de ouvido, sendo aceita solução combinada. Possuir, no mínimo, alto-falante duplo interno, com 2W Watt RMS de potência, compatível com a controladora de som. Deverá possuir microfone integrado com dupla captação e recurso para redução e ou cancelamento de ruídos. GABINETE Gabinete com composto de carbono, magnésio, PC/ABS, titânio, fibra de vidro ou alumínio e aderente ao padrão MIL-STD 810 ou outra certificação assegurando a durabilidade, confiança e resistência do equipamento em variadas situações de uso, devidamente comprovado através de documentos oficiais do fabricante; Produzido nas variações das cores preta, cinza, prata, grafite ou na combinação dessas; Possuir slot específico para instalação de cabo com trava de fixação antifurto; Equipamento completo, notebook com bateria e SSD instalados, deverá pesar no máximo 1.6 Kg e ter altura máxima de de 21,1Imm com equipamento fechado. Possuir botão de liga/desliga e luz de indicação do computador ligado (power-on) na parte frontal e/ou lateral do gabinete. Deverá ser aplicado logo oficial da contratante, com área de impressão mínima de 3,00 x 2,/2 cm, através de sistema de gravação direta como aplicação em Laser, não sendo admitido o uso de adesivagem, serigrafias ou adaptações semelhantes. A gravação deverá ser feita apenas no gabinete do computador, visando medidas de segurança. CONECTIVIDADE Deverá possuir 01 (uma) porta HDMI; Possuir no mínimo, 04 portas USB, sendo no mínimo 02 (duas) USB 3.2 tipo C. Deverá possuir 01 (um) conector multimídia para o uso de microfones e fones de ouvido (pode ser combo); TELA Monitor LED de no mínimo 14", de formato 16:9 ou 16:10 (widescreen) IPS; Deverá ter resolução FHD mínima de 1920x1080, modo de 16.7 milhões de cores; Deverá possuir webcam FHD (1080p), ou superior, integrada ao chassi. Deverá possuir maneira física de inibir a imagem capturada a fim de prover privacidade ao usuário. Essa característica deverá fazer parte do projeto original do equipamento e referenciada em seus manuais e materiais de divulgação. Não serão aceitas adaptações, ou “tampas” externas. TECLADO E MOUSE (INTEGRADOS) Teclado retro iluminado integrado ao equipamento, no padrão ABNT2, em Português (PT-BR); Deverá ter um leitor de impressões digitais integrado (fingerprint); Possuir sistema de proteção contra o derramamento de líquidos; Dispositivo apontador do tipo “touch pad”. BATERIA E ENERGIA Bateria principal de Íon de Lítio (Lithium-lon) ou polímero de Lítio, deve ser de no mínimo 47WRh, e ter autonomia mínima (tempo de descarga) de 8 horas; Adaptador AC universal / ou USB tipo-C de no mínimo 65W com entrada de 110/220 VAC. SISTEMA OPERACIONAL Deverá vir instalado com o Sistema Operacional Microsoft Windows 11 Professional 64 bits devidamente licenciado. O fabricante deve disponibilizar no seu respectivo website, download gratuito de todos os drivers de dispositivos, BIOS e Firmwares para o equipamento ofertado. ACESSÓRIOS Acompanhar mochila para notebook compatível com o modelo fornecido, em couro, poliéster ou nylon na cor preta ou cinza, com peso de até 1 Kg, com qualidade construtiva que garanta resistência e proteção efetiva para o equipamento do mesmo fabricante do equipamento; Acompanhar um mouse USB de 1600 DPI do mesmo fabricante do esquipamento. GARANTIA: O atendimento será do tipo “on-site”, O notebook ofertado deverá possuir garantia de no mínimo 1 (um) ano, prestada pelo fabricante ou rede de assistência técnica devidamente autorizada, em horário comercial, a contar a partir da data do aceite do equipamento. A contratada deve possuir central de atendimento tipo (0800) para abertura dos chamados de garantia, comprometendo-se a manter registros dos mesmos constando a descrição do problema. Durante a garantia deverão ser substituídas, sem nenhum ônus adicional, peças ou partes defeituosas, salvo quando o defeito for provocado por uso indevido do equipamento, devidamente comprovado. A garantia não será afetada caso tenhamos a necessidade de instalar placas de rede locaisó, de fax-modem, interfaces específicas para acionamento de outros equipamentos, adicionar unidade de disco rígido bem como alterar a capacidade de memória, ressaltando que a garantia desses opcionais adicionados será de total responsabilidade do órgão. Durante o período de garantia, a assistência técnica deverá ser prestada, exclusivamente pelo fabricante dos equipamentos ou empresa prestadora de serviços de assistência técnica devidamente credenciada pelo mesmo através de carta apresentada no ato da licitação. No caso de o licitante não ser o próprio fabricante do equipamento, ele deverá apresentar declaração/certificado do fabricante, comprovando que o produto ofertado possui a garantia solicitada neste termo de referência; DOCUMENTAÇÃO OBRIGATÓRIA As licitantes deverão apresentar descrição detalhada dos equipamentos ofertados junto com a proposta e anexar a respectiva documentação técnica, para comprovação das especificações técnicas mínimas. A proposta que não cumprir o disposto neste item será desclassificada. Comprovação de que os equipamentos ofertados possuem ferramentas online no site do fabricante para diagnóstico de problemas e banco de dados disponibilizado na Internet que permita obter a configuração de hardware e software ofertado, periféricos internos e drivers de instalação atualizados e disponíveis para download a partir do número de série dos mesmos, detecção automática de atualizações de drivers; O equipamento deve atender à norma IEC 60950 ou similar, o que deverá ser comprovado por meio de certificação emitida pelo Inmetro ou por Organismo de Certificação de Produto — OCP, acreditado pelo Inmetro, consoante o estabelecido nos Requisitos de Avaliação de Conformidade para Bens de Informática, aprovados pela Portaria nº 170, de 10 de abril de 2012, atestando-se a adequação do bem fornecido aos requisitos de segurança para usuário e instalações O equipamento ofertado deverá constar no Microsoft hardware compatibility list (HCL) para o sistema operacional exigido. A comprovação da compatibilidade será efetuada pela apresentação do documento hardware compatibility test report; Certificado ou comprovante de conformidade que comprove que o equipamento não contém substâncias perigosas como mercúrio (hg), chumbo (pb), cromo hexavalente (ecr(vi)), cádmio (CD), bifenil polibromados (pbbs), éteres difenil-polibromados (pbdes) em concentração acima da recomendada na diretiva ROHS (restriction of certain hazardous substances); O fabricante do microcomputador deve possuir Certificado ISO 9001 e 14001 O fabricante deverá fazer parte da lista de membros do DMTF nas categorias board ou leadership, comprovado através de certificação; O fabricante deverá possuir certificado de Regularidade emitido pela CTF/APP (Cadastro Técnico Federal de Atividades Potencialmente Poluidoras e Utilizadoras de Recursos Ambientais) de acordo com as normas ambientais sob controle e fiscalização do Ibama Deverá ser apresentado na proposta, documento com a indicação da Assistência Técnica ou autorizada do Fabricante.</t>
-  </si>
-  <si>
-    <t>Tipo de Scanner: Alimentador automático de documentos (ADF), frente e verso Velocidade de digitalização: (A4) (Cor / Escala de cinza / Monocromático: Um lado: 30 ppm (200/300 dpi) Frente e verso: 60 ipm (200/300 dpi) Tipo de sensor de imagem: Linha única CMOS-CIS x 2 (frontal x 1, traseira x 1) Fonte de luz: LED RGB x 2 (frontal x 1, traseiro x 1) Resolução óptica: 600 ppp Resolução de saída (Colorido / Escala de cinza / Monocromático): 50 a 600 dpi (ajustável em incrementos de 1 dpi), 1.200 dpi (driver) Formato de saída: Cor: 24 bits, Escala de cinza: 8 bits, Monocromático: 1 bit Cores de fundo: Branco Tamanho do documento: Máximo: 216 x 355,6 mm Mínimo: 52 x 74 mm Digitalização de papel longo: 3048 mm Peso do papel (espessura): Papel: 50 a 209 g/m2 (13,4 a 56 lb) (7) Cartão de plástico: 0,7/6 mm (0,0299 pol.) Ou menos Capacidade do ADF: 50 folhas (A4 80 g/m2 ou carta lb) Volume diário esperado: 4.500 folhas Detecção de alimentação múltipla: Detecção de sobreposição (sensor ultrassônico) Interface: USB: 3.2 Gen 1x1 Ethernet: 10BASE-T,100BASE-TX,1000BASE-T Requisitos de energia: Voltagem: AC 100 - 240 V, 50/60 Hz Consumo energético: Modo operacional: 18 W ou menos Modo de economia de energia: 2 W ou menos Modo de espera automática (desligado): 0,4 W ou menos Ambiente Operacional: Temperatura: 5 a 35 º C(41 a 95º F) Humidade relativa: 20 a 80% (sem condensação) Conformidade Ambiental: ENERGY STAR e RoHS Dimensões; 298 x 135 x 133 mm Sistema operacional suportado: Windows 10, Windows 8.1, Windows 7, Windows Server 2019, Windows Server 2016, Windows Server 2012 R2, Windows Server 2012, Windows Server 2008 R2 Funções de processamento de imagem: Saída de várias imagens Detecção automática de cores Detecção automática de tamanho de página Detecção de página em branco Limite dinâmico (iDTC) DTC avançado SDTC Difusão de erros Pontilhamento Tela Ênfase Cor da saída (Nenhuma / Vermelho / Verde / Azul / Branco / Saturação /Personalizado) Saída sSsRGB Imagem dividida De-Skew Preenchimento de borda Redução de riscos verticais Endossador digital Remoção de padrão de fundo Espessura de caracteres Aumento de caracteres Extração de caracteres Conteúdo da Embalagem: Scanner Fujitsu ScanPartner Adaptador AC Cabo USB DVD-ROM de configuração</t>
-  </si>
-  <si>
-    <t>GABINETE Gabinete integrado (All In One / Tudo em um) com Monitor de no mínimo 23,8” com desenho do próprio fabricante; Deverá possuir ajuste de altura. Serão aceitos monitores com projetos específicos para acoplamento de desktops do tipo mini/micro com volume máximo de 1.2L, onde ambos (monitor + computador) devem ser do mesmo fabricante. Neste tipo de solução, a conexão do desktop à tela/monitor deverá ser feita através de conector específico (docking) ou via um cabo único 3-1 (energia, USB e DisplayPort) a ser conectado em uma porta especiífica upstream. Sendo permitido, portanto, ligar e desligar o equipamento através de botão presente na frente do monitor, não sendo necessário o acesso do usuário a parte de trás do equipamento. Deverá manter o uso de apenas um ponto de energia elétrica e dispensando o uso de outros tipos de cabos externos para vídeo. No caso deste tipo de solução deverão ser respeitadas todas as demais exigências, como no tocante a quantidade de portas, conectores, capacidade de expansão, e demais especificações. Não será aceito o uso de suportes ou adaptadores externos, para acoplamento do equipamento ao monitor. Acompanhar um cabo de alimentação e plugue de acordo com o padrão utilizado no Brasil, especificado pela NBR 14136. Deverá ser aplicado logo oficial da contratante, com área de impressão mínima de 3,00 x 2,/2 cm, através de sistema de gravação direta como aplicação em Laser, não sendo admitido o uso de adesivagem, serigrafias ou adaptações semelhantes. A gravação deverá ser feita apenas no gabinete do computador, visando medidas de segurança. O gabinete deverá possuir o furo padrão “Kensington” para a utilização de um cabo de aço do mesmo tipo, que o prenderá o AlO à mesa de trabalho. Deverá acompanhar a trava com duas chaves com o mesmo segredo. PROCESSADOR Deverá possuir, no mínimo, 14 (quatorze) núcleos e 20 (vinte) threads de processamento com frequência de operação de pelo menos 4.6GHz de frequência de clock máximo (turbo). Memória cache L3 de, no mínimo, 24MB. Suportar memória com velocidade 4800 MHz Compeatível com as características de gerenciamento remoto Intel vPro ou AMD Dash 1.2. É obrigatório declarar, na proposta, o modelo do processador ofertado; MEMÓRIA RAM Deverá possuir, no mínimo, 16GB de memória RAM instalados. Deverá ser expansível à, no mínimo, 64 GB de memória. Deverá ser do tipo DDR5-4800MHz ou superior BIOS BIOS desenvolvida pelo mesmo fabricante do equipamento ou ter direitos copyright sobre a BIOS, ou em regime de OEM, comprovados através de documento oficial do fabricante. O fabricante do equipamento, deverá ser totalmente responsável pela BIOS fornecida juntamente com a placa-mãe e pela atualização desta BIOS, devendo promover as alterações que se façam necessárias e corrigir problemas ou danos causados ao equipamento em razão dessa BIOS ou de procedimentos de atualização desta BIOS (que poderão ser acompanhados pela empresa caso haja necessidade), durante o período de garantia do equipamento; Bios português ou inglês, em conformidade com as especificações UEFI 2.5 (http://www.uefi.org), e capturáveis pela aplicação de inventário SCCM (System Center Configuration Manager), o fabricante deverá comprovar a compatibilidade com o padrão UEFI através do site http:// www.uefi.org/members, na categoria membros. O BIOS deverá ser do tipo memória flash. Possuir um campo com o número de série do equipamento e um campo editável que permita inserir uma identificação customizada, como número de patrimônio ou de serviço, e que possam ser consultadas por software de gerenciamento; Deverá possuir recursos de controle de permissão através de senhas. Os equipamentos deverão ser entregues com etiqueta de número de patrimônio fixada ao gabinete, onde a contratante fornecerá as informações necessárias, e a lista com os números de patrimônios. Os equipamentos deverão ser entregues com logo definido pela Contratante estampado na BIOS do equipamento; Estar em conformidade com a normativa NIST 800-147 baseado nos padrões de mercado de maneira a usar métodos de criptografia robusta para verificar a integridade do BIOS antes de passar o controle de execução a mesma; Software embarcado no BIOS com Funções de diagnóstico de problemas, e gerenciamento com as seguintes características: Permitir o teste do equipamento, com independência do sistema operacional instalado, o software de diagnóstico deve ser capaz de ser executado (inicializado) a partir da UEFI (Unified /Extensible Firmware Interface) ou do Firmware do equipamento através do acionamento de tecla função (F1...F12); GERENCIAMENTO O equipamento (processador, placa-mãe, placa de rede, etc.) deverá dispor de gerenciamento remoto através das tecnologias, que implementem essa funcionalidade, sendo AMD PRO ou Intel Vpro. Deverá estar aderente às especificações do DASH 1.2 ou WS-Man, definidas pelo DMTF (Desktop Management Task Force). Capacidade de permitir o acesso remoto ao computador, formatação de disco, mesmo com este desligado ou com o Sistema Operacional travado ou inacessível, sendo possível o gerenciamento pela rede cabeada e wireless. A placa-mãe deverá possuir memória não volátil, para gravação de informações de inventário de hardware (placa mãe, processador, memória e disco), que sejam acessíveis remotamente pela rede independente do estado do sistema operacional. A máquina deverá suportar intervenção técnica do helpdesk via rede IP para atualização de BIOS, configuração de SETUP (CMOS) e boot remoto para execução de rotinas de diagnóstico, mesmo se o sistema operacional estiver inoperante. As configurações das funcionalidades de gerenciamento presentes na placa-mãe deverão ser feitas sem a necessidade de intervenção presencial à máquina, mesmo com o sistema operacional inoperante. Permitir acesso remoto via hardware através de conexão TCP/IP, à interface gráfica (KVM — Keyboard Vídeo Mouse over IP), com controle total de teclado e mouse, independente do estado, tipo e versão do sistema operacional instalado no equipamento ofertado, com controle remoto total da BIOS. O equipamento deve permitir o gerenciamento remoto via hardware independente do sistema operacional, como acesso à BIOS, visualização remota do POST da máquina e inicialização do equipamento a partir de mídia externa e imagem (ISO ou IMG) a partir da console do administrador localizada em compartilhamento na rede. PLACA MÃE A placa mãe deve ser fabricada pelo próprio fabricante do microcomputador ou projetadas especificamente para o equipamento com direitos Copyright, não sendo aceito placas de livre comercialização no mercado, nem em regime de OEM; Deverá possuir, no mínimo, chipset Q670 ou AMD PRO 500; Sistema de detecção de intrusão de chassis, com acionador instalado no gabinete, sem adaptações; Deverá possuir, no mínimo, 02 (dois) slots M.2 para armazenamento. Possuir módulo TPM (Trusted Platform Module) versão 2.0 ou superior instalado de fábrica integrado a placa-mãe destinado ao armazenamento de senhas, certificados digitais e chaves criptográficas em conformidade com as especificações do Trusted Computing Group. ARMAZENAMENTO Deverá possuir, no mínimo, 512GB do tipo SSD e tecnologia NVMe M.2. CONTROLADORA DE REDE GIGABIT ETHERNET: Deverá possuir, no mínimo, 01 (uma) interface de rede compatível com Ethernet, sendo do tipo "onboard" ou através de placa adaptadora. Possuir velocidades de comunicação de 10/100/1000Mbps. Deverá possuir conector de rede do padrão RJ-45. Deverá suportar recurso WOL (Wake On LAN). 01 (uma) interface de rede wireless padrão 802.11 AX e bluetooth 5.1 Integrado. CONTROLADORA DE ÁUDIO: Controladora de som integrada Possuir alto-falante interno, com capacidade total de 4 Watt RMS ou superior, compatível com a controladora de som. CONECTIVIDADE Deverá possuir no mínimo 5 (cinco) portas USB Tipo A 3.2 e 01 (uma) porta USB Tipo C 3.2. Deverá possuir, no mínimo, duas interfaces de vídeo livres do tipo digital (HDMI ou DisplayPort), para suportar o uso de 2 telas adicionais, além da principal. TELA Integrada de no mínimo 23,8” polegadas Resolução Nativa 1920X1080 IPS Brilho mínimo 250 cd/m? Deve possuir ajuste de altura. Deverá possuir webcam FHD integrado ao monitor. Não serão aceitas soluções externas via USB ou adaptadores. TECLADO Teclado USB, com ajuste de inclinação, com 107 teclas, teclado numérico separado, padrão ABNT2. Deverá possuir proteção contra o derramamento de líquidos. A marca deverá ser igual à do fabricante do equipamento ofertado. MOUSE Mouse ótico USB, de dois botões, e dispositivo de rolagem de tela, devendo possuir resolução mínima por hardware de 1600 DPI; A marca deverá ser igual à do fabricante do equipamento ofertado. Deverá acompanhar mouse pad do mesmo fabricante do equipamento. FONTE DE ALIMENTAÇÃO Deverá ser interna ou externa, compatível ao gabinete e placa mãe. Fonte de alimentação com tensão de entrada 110/220 VAC, com potência máxima de 240 W. SISTEMA OPERACIONAL Deverá vir instalado com o Sistema Operacional Microsoft Windows 11 Professional 64 bits devidamente licenciado ou versão superior. Os equipamentos deverão vir de fábrica com a imagem de instalação do sistema operacional e softwares customizada de acordo com a imagem previamente fornecida pela CONTRATANTE. SEGURANÇA E RASTREAMENTO Requisitos de segurança remota/rastreamento/proteção dos dados: O equipamento ofertado deve possuir integrado dispositivo ou funcionalidade na BIOS operando em modo persistente com características de segurança avançada de rastreamento pela internet que, em caso de furto ou extravio acidental, permita recuperação e localização do mesmo e ainda execução das seguintes funcionalidades; Bloqueio do hardware, impossibilitando que o equipamento seja utilizado ou reutilizado em caso de substituição do HD; Envio de um comando remoto capaz de apagar todas as informações contidas no HD ou arquivos especiíficos; Gerar logs do histórico de locais em que o equipamento foi utilizado, mostrando em um mapa os endereços, data e hora da conexão; As funcionalidades descritas deverão ser ativadas remotamente através de um console web; Esse dispositivo ou funcionalidade no BIOS deverá operar em formato persistente, nativamente presente e pronto para ativação no equipamento ofertado com suporte por todo o período da garantia do hardware, através da aquisição de sua licença prevista na configuração inicial. A comprovação que o equipamento é compatível com a tecnologia acima solicitada, deverá ocorrer através do site da Absolute Software (https://www.absolute.com/engb/partners/compatibility) ou por site público de outro fabricante que execute comprovadamente as mesmas funcionalidades solicitadas; GARANTIA DO HARDWARE O conjunto de equipamento ofertado deverá possuir garantia de no mínimo 12 (doze) meses, prestada pelo fabricante, em horário comercial, a contar a partir da data do aceite do equipamento. O fabricante do equipamento deve possuir central de atendimento tipo (0800) para abertura dos chamados de garantia, comprometendo-se a manter registros dos mesmos constando a descrição do problema. Durante a garantia deverão ser substituídas, sem nenhum ônus adicional, peças ou partes defeituosas, salvo quando o defeito for provocado por uso indevido do equipamento, devidamente comprovado. A garantia não será afetada caso tenhamos a necessidade de instalar placas de rede locaisó, de fax-modem, interfaces específicas para acionamento de outros equipamentos, adicionar unidade de disco rígido bem como alterar a capacidade de memória, ressaltando que a garantia desses opcionais adicionados será de total responsabilidade do órgão. Durante o período de garantia, a assistência técnica deverá ser prestada, pelo fabricante dos equipamentos. Os “partnumbers/descrição de garantias adicionais que serão prestados pelo fabricante devem constar na proposta. No caso de o licitante não ser o próprio fabricante do equipamento, ele deverá apresentar declaração/certificado do fabricante, comprovando que o produto ofertado possui a garantia solicitada neste termo de referência; DOCUMENTAÇÃO OBRIGATÓRIA As licitantes deverão apresentar descrição detalhada dos equipamentos ofertados junto com a proposta e anexar a respectiva documentação técnica, para comprovação das especificações técnicas mínimas. A proposta que não cumprir o disposto neste item será desclassificada. Comprovação de que os equipamentos ofertados possuem ferramentas online no site do fabricante para diagnóstico de problemas e banco de dados disponibilizado na Internet que permita obter a configuração de hardware e software ofertado, periféricos internos e drivers de instalação atualizados e disponíveis para download a partir do número de série dos mesmos, detecção automática de atualizações de drivers; O All-ln-One ou computador mini e o monitor deve atender à norma IEC 60950 ou similar, o que deverá ser comprovado por meio de certificação emitida pelo Inmetro ou por Organismo de Certificação de Produto — OCP, acreditado pelo Inmetro, consoante o estabelecido nos Requisitos de Avaliação de Conformidade para Bens de Informática, aprovados pela Portaria nº 170, de 10 de abril de 2012, atestando-se a adequação do bem fornecido aos requisitos de segurança para usuário e instalações O All-in-one ou computador mini ofertado deverá constar no Microsoft hardware compatibility list (HCL) para o sistema operacional Windows 10 Pro ou superior. A comprovação da compatibilidade será efetuada pela apresentação do documento hardware compatibility test report; O computador mini ou o All in One deve possuir certificação MIL-STD-810H, garantindo maior resistência e durabilidade do equipamento; O fabricante do microcomputador deve possuir Certificado ISO 9001 e 140071. O fabricante deverá fazer parte da lista de membros do DMTF nas categorias board ou leadership, comprovado através de certificação; O fabricante deverá possuir certificado de Regularidade emitido pela CTF/APP (Cadastro Técnico Federal de Atividades Potencialmente Poluidoras e Utilizadoras de Recursos Ambientais) de acordo com as normas ambientais sob controle e fiscalização do Ibama. Deverá ser apresentado na proposta, documento com a indicação da Assistência Técnica ou autorizada do Fabricante.</t>
-  </si>
-  <si>
-    <t>Processador forte e de alto desempenho: Este tablet Android inteligente está equipado com o mais recente sistema Android 12.0, O poderoso processador de 8 núcleos, 2.0GHz faz com que os aplicativos funcionem mais rápido e suave, oferece-lhe uma experiência rápida e fluente de entretenimento. 2 em 1 Tablet com teclado: Este pacote de tablet Android 12 é uma combinação perfeita, 10 polegadas Tablet conectar com um teclado e mouse Bluetooth sem fio, com uma capa protetora, 2 em 1 tablet pode atender a todas as suas necessidades. Este tablet está equipado com 6GB de RAM, 128GB ROM, suporta expansão de capacidade de 256GB, leve, mas excelente, permite que você baixe um grande número de aplicativos da Google Play Store e se divirta com eles. Com este tablet leve, você pode manter todos os seus multimídias favoritos com você onde quer que vá, como e-mails, fotos, jogos, música, vídeos, eBook, etc. Equipado com bateria de lítio de 85500mAh, o tablet pode ficar em espera por até 3 dias e reproduzir vídeo por até 3-5 horas. Carregue facilmente através da porta USB Type-C e tenha a certeza de que a bateria durará. Com uma porta Type-C e um conector de fone de ouvido de 3,5 mm, este tablet Android oferece opções de conectividade convenientes para todos os seus dispositivos.</t>
-  </si>
-  <si>
-    <t>[RENDIMENTO] Imprima até 12.000 páginas com tintas inclusas na caixa [FUNÇÕES] Imprimir, copiar, digitaliza [CONECTIVIDADE] Impressão Duplex Automática. Wi-Fi com auto-recuperação e que facilitam a impressão desde qualquer lugar. Dimensões do produto 42P x 36,4L x 19A centímetros Tamanho máximo A4 da mídia da impressora Tipo de scanner Alimentador de folhas Tamanho da folha A4; A5; A6; B5 (JIS); Envelope (DL, C5, C6, Chou *3, Chou t4); Cartão (Hagaki, Ofuku Hagaki); Tamanho personalizado 88.9 x 127 mm to 215.9 x 355.6 mm Impressão frente e verso Sim Certificação ANATEL: 07621-19-02585 Formato Tudo em um Tipo de conexão WIi-Fi Etiqueta Nacional A+ de Eficiência Energética (ENCE) Fonte de alimentação Elétrico com fio Sistema operacional Mac OS 10 15 Catalina, Mac OS 11 Big Sur, macOS 10.14 Mojave, Windows 7, Windows 11, Windows 10 Número de unidades 1 Peso do produto 6,4 Kilograms Número do modelo 724 Funciona a bateria ou pilha? Não</t>
-  </si>
-  <si>
-    <t>7142,22</t>
-  </si>
-  <si>
-    <t>4822,00</t>
-  </si>
-  <si>
-    <t>5191,55</t>
-  </si>
-  <si>
-    <t>989,43</t>
-  </si>
-  <si>
-    <t>1624,73</t>
-  </si>
-  <si>
-    <t>71422,20</t>
-  </si>
-  <si>
-    <t>24110,00</t>
-  </si>
-  <si>
-    <t>25957,75</t>
-  </si>
-  <si>
-    <t>4947,15</t>
-  </si>
-  <si>
-    <t>4874,19</t>
+    <t>PROCESSADOR: O processador deverá ser última ou penúltima geração oferecida pelo fabricante (acima de 13ª para INTEL e série 7000 para AMD);Deverá possuir, no mínimo, 06 (seis) núcleos e 12 (doze) threads de processamento com frequência máxima de no mínimo de 4.5 GHz;Memória cachê L3, no mínimo, 12 MB; Suportar memória 3200 MhzÉ obrigatório declarar, na proposta, o modelo do processador ofertado;Memória RAM:Deverá possuir, no mínimo, 8 GB (oito gigabytes) de memória RAM instalados Memória RAM tipo DDR-4 com barramento mínimo de 3200 MHz ou superior; Capacidade máxima de expansão de, no mínimo, 40GB.BIOSBIOS desenvolvida pelo mesmo fabricante do equipamento ou ter direitos copyright sobre a BIOS, ou em regime de OEM, comprovados através de documento oficial do fabricante. O fabricante do equipamento, deverá ser totalmente responsável pela BIOS fornecida juntamente com a placa-mãe e pela atualização desta BIOS, devendo promover as alterações que se façam necessárias e corrigir problemas ou danos causados ao equipamento em razão dessa BIOS ou de procedimentos de atualização desta BIOS durante o período de garantia do equipamento;Deverá possuir mecanismo de hardware e, ou software ou, mesmo ambos em conjunto que, executem auto reparo da BIOS quando for detectada alguma quebra na integridade por existência de informações corrompidas ou adulteradas através de uma cópia da BIOS mantida no próprio hardware do equipamento; O fabricante deve ser registrado na "Membership List" do Unified Extensible Firmware Interface Fórum, acessível pelo website www.uefi.org/members, estando na categoria “Promoters”, de forma a atestar que os seus equipamentos estão em conformidade com a especificação UEFI 2.x ou superior.Possuir um campo com o número de série do equipamento e um campo editável que permita inserir uma identificação customizada, como número de patrimônio ou de serviço.Deverá possuir recursos de controle de permissão através de senhas.Deverá ser entregue com etiqueta com número de patrimônio fixada ao equipamento, Todos os equipamentos serão entregues com logo definido pela contratante gravado na BIOS;Estar em conformidade com a normativa NIST 800-147 baseado nos padrões de mercado de maneira a usar métodos de criptografia robusta para verificar a integridade do BIOS antes de passar o controle de execução a mesma;Software embarcado no BIOS com Funções de diagnóstico de problemas, que permite o teste do equipamento com independência do sistema operacional instalado, capaz de ser executado (inicializado) a partir da UEFI ou do Firmware do equipamento através do acionamento de tecla função (F1...F12), sendo possível informar através de tela gráfica o fabricante e modelo do equipamento, processador, memória e capacidade do disco.PLACA MÃEA placa mãe deve ser fabricada pelo próprio fabricante do microcomputador ou projetadas especificamente para o equipamento com direitos Copyright, não sendo aceito placas de livre comercialização no mercado, nem em regime de OEM;Possuir módulo TPM (Trusted Platform Module) versão 2.0 ou superior instalado de fábrica integrado à placa-mãe destinado ao armazenamento de senhas, certificados digitais e chaves criptográficas em conformidade com as especificações do Trusted Computing Group. Não será aceito solução via firmware TPM.ARMAZENAMENTO(uma) unidade do tipo SSD, de no mínimo, 512GB M.2 NVMe.CONTROLADORA DE REDEUma interface de rede com conector RJ-45 fêmea integrado à placa-mãe, com função wake-on-lan instalada e em funcionamento, suportando taxa de transmissão de 10/100/1000 Mbps em modo full-duplex.Uma interface de rede wireless integrado à placa mãe, padrão 802.11ax dual band.Possuir interface Bluetooth 5.1 ou superior integrada que deverá ser certificada pela Anatel, em documento entregue junto com a proposta;Antena wi-fi 6 dupla-banda (Dual-Band) integrada.CONTROLADORA DE ÁUDIO:Interface de som integrada padrão High Definition Audio com conectores para microfone e fone de ouvido, sendo aceita solução combinada.Possuir, no mínimo, alto-falante duplo interno, com 2W Watt RMS de potência, compatível com a controladora de som.Deverá possuir microfone integrado com dupla captação e recurso para redução e ou cancelamento de ruídos.GABINETEGabinete com composto de carbono, magnésio, PC/ABS, titânio, fibra de vidro ou alumínio e aderente ao padrão MIL-STD 810 ou outra certificação assegurando a durabilidade, confiança e resistência do equipamento em variadas situações de uso, devidamente comprovado através de documentos oficiais do fabricante;Produzido nas variações das cores preta, cinza, prata, grafite ou na combinação dessas; Possuir slot específico para instalação de cabo com trava de fixação antifurto;Equipamento completo, notebook com bateria e SSD instalados, deverá pesar no máximo 1.6 Kg e ter altura máxima de de 21,1mm com equipamento fechado.Possuir botão de liga/desliga e luz de indicação do computador ligado (power-on) na parte frontal e/ou lateral do gabinete.Deverá ser aplicado logo oficial da contratante, com área de impressão mínima de 3,00 x 2,72 cm, através de sistema de gravação direta como aplicação em Laser, não sendo admitido o uso de adesivagem, serigrafias ou adaptações semelhantes. A gravação deverá ser feita apenas no gabinete do computador, visando medidas de segurança.CONECTIVIDADEDeverá possuir 01 (uma) porta HDMI;Possuir no mínimo, 04 portas USB, sendo no mínimo 02 (duas) USB 3.2 tipo C.Deverá possuir 01 (um) conector multimídia para o uso de microfones e fones de ouvido (pode ser combo);TELA Monitor LED de no mínimo 14", de formato 16:9 ou 16:10 (widescreen) IPS; Deverá ter resolução FHD mínima de 1920x1080, modo de 16.7 milhões de cores; Deverá possuir webcam FHD (1080p), ou superior, integrada ao chassi.Deverá possuir maneira física de inibir a imagem capturada a fim de prover privacidade ao usuário. Essa característica deverá fazer parte do projeto original do equipamento e referenciada em seus manuais e materiais de divulgação. Não serão aceitas adaptações, ou “tampas” externas.TECLADO E MOUSE (INTEGRADOS)Teclado retro iluminado integrado ao equipamento, no padrão ABNT2, em Português (PT-BR); Deverá ter um leitor de impressões digitais integrado (fingerprint);Possuir sistema de proteção contra o derramamento de líquidos; Dispositivo apontador do tipo “touch pad”.BATERIA E ENERGIA Bateria principal de Íon de Lítio (Lithium-Íon) ou polímero de Lítio, deve ser de no mínimo 47Wh, e ter autonomia mínima (tempo de descarga) de 8 horas;Adaptador AC universal / ou USB tipo-C de no mínimo 65W com entrada de 110/220 VAC.SISTEMA OPERACIONALDeverá vir instalado com o Sistema Operacional Microsoft Windows 11 Professional 64 bits devidamente licenciado.O fabricante deve disponibilizar no seu respectivo website, download gratuito de todos os drivers de dispositivos, BIOS e Firmwares para o equipamento ofertado.ACESSÓRIOSAcompanhar mochila para notebook compatível com o modelo fornecido, em couro, poliéster ou nylon na cor preta ou cinza, com peso de até 1 Kg, com qualidade construtiva que garanta resistência e proteção efetiva para o equipamento do mesmo fabricante do equipamento;Acompanhar um mouse USB de 1600 DPI do mesmo fabricante do esquipamento.GARANTIA:O atendimento será do tipo “on-site”,O notebook ofertado deverá possuir garantia de no mínimo 1 (um) ano, prestada pelo fabricante ou rede de assistência técnica devidamente autorizada, em horário comercial, a contar a partir da data do aceite do equipamento. A contratada deve possuir central de atendimento tipo (0800) para abertura dos chamados de garantia, comprometendo-se a manter registros dos mesmos constando a descrição do problema.Durante a garantia deverão ser substituídas, sem nenhum ônus adicional, peças ou partes defeituosas, salvo quando o defeito for provocado por uso indevido do equipamento, devidamente comprovado.A garantia não será afetada caso tenhamos a necessidade de instalar placas de rede locais, de fax-modem, interfaces específicas para acionamento de outros equipamentos, adicionar unidade de disco rígido bem como alterar a capacidade de memória, ressaltando que a garantia desses opcionais adicionados será de total responsabilidade do órgão.Durante o período de garantia, a assistência técnica deverá ser prestada, exclusivamente pelo fabricante dos equipamentos ou empresa prestadora de serviços de assistência técnica devidamente credenciada pelo mesmo através de carta apresentada no ato da licitação.No caso de o licitante não ser o próprio fabricante do equipamento, ele deverá apresentar declaração/certificado do fabricante, comprovando que o produto ofertado possui a garantia solicitada neste termo de referência;DOCUMENTAÇÃO OBRIGATÓRIAAs licitantes deverão apresentar descrição detalhada dos equipamentos ofertados junto com a proposta e anexar a respectiva documentação técnica, para comprovação das especificações técnicas mínimas.A proposta que não cumprir o disposto neste item será desclassificada.Comprovação de que os equipamentos ofertados possuem ferramentas online no site do fabricante para diagnóstico de problemas e banco de dados disponibilizado na Internet que permita obter a configuração de hardware e software ofertado, periféricos internos e drivers de instalação atualizados e disponíveis para download a partir do número de série dos mesmos, detecção automática de atualizações de drivers;O equipamento deve atender à norma IEC 60950 ou similar, o que deverá ser comprovado por meio de certificação emitida pelo Inmetro ou por Organismo de Certificação de Produto – OCP, acreditado pelo Inmetro, consoante o estabelecido nos Requisitos de Avaliação de Conformidade para Bens de Informática, aprovados pela Portaria n° 170, de 10 de abril de 2012, atestando-se a adequação do bem fornecido aos requisitos de segurança para usuário e instalaçõesO equipamento ofertado deverá constar no Microsoft hardware compatibility list (HCL) para o sistema operacional exigido. A comprovação da compatibilidade será efetuada pela apresentação do documento hardware compatibility test report;Certificado ou comprovante de conformidade que comprove que o equipamento não contém substâncias perigosas como mercúrio (hg), chumbo (pb), cromo hexavalente (cr(vi)), cádmio (CD), bifenil polibromados (pbbs), éteres difenil-polibromados (pbdes) em concentração acima da recomendada na diretiva ROHS (restriction of certain hazardous substances);O fabricante do microcomputador deve possuir Certificado ISO 9001 e 14001O fabricante deverá fazer parte da lista de membros do DMTF nas categorias board ou leadership, comprovado através de certificação;O fabricante deverá possuir certificado de Regularidade emitido pela CTF/APP (Cadastro Técnico Federal de Atividades Potencialmente Poluidoras e Utilizadoras de Recursos Ambientais) de acordo com as normas ambientais sob controle e fiscalização do IbamaDeverá ser apresentado na proposta, documento com a indicação da Assistência Técnica ou autorizada do Fabricante.</t>
+  </si>
+  <si>
+    <t>Tipo de Scanner: Alimentador automático de documentos (ADF), frente e versoVelocidade de digitalização: (A4) (Cor / Escala de cinza / Monocromático: Um lado: 30 ppm (200/300 dpi)Frente e verso: 60 ipm (200/300 dpi)Tipo de sensor de imagem: Linha única CMOS-CIS x 2 (frontal x 1, traseira x 1) Fonte de luz: LED RGB x 2 (frontal x 1, traseiro x 1)Resolução óptica: 600 pppResolução de saída (Colorido / Escala de cinza / Monocromático): 50 a 600 dpi (ajustável em incrementos de 1 dpi), 1.200 dpi (driver)Formato de saída: Cor: 24 bits, Escala de cinza: 8 bits, Monocromático: 1 bit Cores de fundo: BrancoTamanho do documento:Máximo: 216 x 355,6 mmMínimo: 52 x 74 mmDigitalização de papel longo: 3048 mmPeso do papel (espessura):Papel: 50 a 209 g/m2 (13,4 a 56 lb) (7)Cartão de plástico: 0,76 mm (0,0299 pol.) Ou menos Capacidade do ADF: 50 folhas (A4 80 g/m2 ou carta lb) Volume diário esperado: 4.500 folhasDetecção de alimentação múltipla: Detecção de sobreposição (sensor ultrassônico)Interface:USB: 3.2 Gen 1x1Ethernet: 10BASE-T,100BASE-TX,1000BASE-TRequisitos de energia:Voltagem: AC 100 - 240 V, 50/60 HzConsumo energético:Modo operacional: 18 W ou menosModo de economia de energia: 2 W ou menosModo de espera automática (desligado): 0,4 W ou menosAmbiente Operacional:Temperatura: 5 a 35 ° C (41 a 95 ° F)Humidade relativa: 20 a 80% (sem condensação)Conformidade Ambiental:ENERGY STAR e RoHSDimensões; 298 x 135 x 133 mmSistema operacional suportado:Windows 10, Windows 8.1, Windows 7, Windows Server 2019, Windows Server 2016,Windows Server 2012 R2, Windows Server 2012, Windows Server 2008 R2Funções de processamento de imagem: Saída de várias imagens Detecção automática de coresDetecção automática de tamanho de página Detecção de página em brancoLimite dinâmico (iDTC) DTC avançadoSDTC Difusão de erros Pontilhamento TelaÊnfaseCor da saída (Nenhuma / Vermelho / Verde / Azul / Branco / Saturação /Personalizado)Saída sRGBImagem dividida De-SkewPreenchimento de borda Redução de riscos verticais Endossador digitalRemoção de padrão de fundo Espessura de caracteres Aumento de caracteresExtração de caracteresConteúdo da Embalagem:Scanner Fujitsu ScanPartner Adaptador ACCabo USBDVD-ROM de configuração</t>
+  </si>
+  <si>
+    <t>GABINETEGabinete integrado (All In One / Tudo em um) com Monitor de no mínimo 23,8’’ com desenho do próprio fabricante;Deverá possuir ajuste de altura.Serão aceitos monitores com projetos específicos para acoplamento de desktops do tipo mini/micro com volume máximo de 1.2L, onde ambos (monitor + computador) devem ser do mesmo fabricante. Neste tipo de solução, a conexão do desktop à tela/monitor deverá ser feita através de conector específico (docking) ou via um cabo único 3-1 (energia, USB e DisplayPort) a ser conectado em uma porta específica upstream. Sendo permitido, portanto, ligar e desligar o equipamento através de botão presente na frente do monitor, não sendo necessário o acesso do usuário a parte de trás do equipamento. Deverá manter o uso de apenas um ponto de energia elétrica e dispensando o uso de outros tipos de cabos externos para vídeo. No caso deste tipo de solução deverão ser respeitadas todas as demais exigências, como no tocante a quantidade de portas, conectores, capacidade de expansão, e demais especificações.Não será aceito o uso de suportes ou adaptadores externos, para acoplamento do equipamento ao monitor.Acompanhar um cabo de alimentação e plugue de acordo com o padrão utilizado no Brasil, especificado pela NBR 14136.Deverá ser aplicado logo oficial da contratante, com área de impressão mínima de 3,00 x 2,72 cm, através de sistema de gravação direta como aplicação em Laser, não sendo admitido o uso de adesivagem, serigrafias ou adaptações semelhantes. A gravação deverá ser feita apenas no gabinete do computador, visando medidas de segurança.O gabinete deverá possuir o furo padrão “Kensington” para a utilização de um cabo de aço do mesmo tipo, que o prenderá o AIO à mesa de trabalho. Deverá acompanhar a trava com duas chaves com o mesmo segredo.PROCESSADORDeverá possuir, no mínimo, 14 (quatorze) núcleos e 20 (vinte) threads de processamento com frequência de operação de pelo menos 4.6GHz de frequência de clock máximo (turbo).Memória cache L3 de, no mínimo, 24MB. Suportar memória com velocidade 4800 MHzCompatível com as características de gerenciamento remoto Intel vPro ou AMD Dash 1.2. É obrigatório declarar, na proposta, o modelo do processador ofertado;MEMÓRIA RAMDeverá possuir, no mínimo, 16GB de memória RAM instalados. Deverá ser expansível à, no mínimo, 64 GB de memória.Deverá ser do tipo DDR5-4800MHz ou superiorBIOSBIOS desenvolvida pelo mesmo fabricante do equipamento ou ter direitos copyright sobre a BIOS, ou em regime de OEM, comprovados através de documento oficial do fabricante. O fabricante do equipamento, deverá ser totalmente responsável pela BIOS fornecida juntamente com a placa-mãe e pela atualização desta BIOS, devendo promover as alterações que se façam necessárias e corrigir problemas ou danos causados ao equipamento em razão dessa BIOS ou de procedimentos de atualização desta BIOS (que poderão ser acompanhados pela empresa caso haja necessidade), durante o período de garantia do equipamento;Bios português ou inglês, em conformidade com as especificações UEFI 2.5 (http://www.uefi.org), e capturáveis pela aplicação de inventário SCCM (System Center Configuration Manager), o fabricante deverá comprovar a compatibilidade com o padrão UEFI através do site http:// www.uefi.org/members, na categoria membros.O BIOS deverá ser do tipo memória flash.Possuir um campo com o número de série do equipamento e um campo editável que permita inserir uma identificação customizada, como número de patrimônio ou de serviço, e que possam ser consultadas por software de gerenciamento;Deverá possuir recursos de controle de permissão através de senhas.Os equipamentos deverão ser entregues com etiqueta de número de patrimônio fixada ao gabinete, onde a contratante fornecerá as informações necessárias, e a lista com os números de patrimônios.Os equipamentos deverão ser entregues com logo definido pela Contratante estampado na BIOS do equipamento;Estar em conformidade com a normativa NIST 800-147 baseado nos padrões de mercado de maneira a usar métodos de criptografia robusta para verificar a integridade do BIOS antes de passar o controle de execução a mesma;Software embarcado no BIOS com Funções de diagnóstico de problemas, e gerenciamento com as seguintes características:Permitir o teste do equipamento, com independência do sistema operacional instalado, o software de diagnóstico deve ser capaz de ser executado (inicializado) a partir da UEFI (Unified /Extensible Firmware Interface) ou do Firmware do equipamento através do acionamento de tecla função (F1...F12);GERENCIAMENTO O equipamento (processador, placa-mãe, placa de rede, etc.) deverá dispor de gerenciamento remoto através das tecnologias, que implementem essa funcionalidade, sendo AMD PRO ou Intel Vpro.Deverá estar aderente às especificações do DASH 1.2 ou WS-Man, definidas pelo DMTF (Desktop Management Task Force).Capacidade de permitir o acesso remoto ao computador, formatação de disco, mesmo com este desligado ou com o Sistema Operacional travado ou inacessível, sendo possível o gerenciamento pela rede cabeada e wireless.A placa-mãe deverá possuir memória não volátil, para gravação de informações de inventário de hardware (placa mãe, processador, memória e disco), que sejam acessíveis remotamente pela rede independente do estado do sistema operacional.A máquina deverá suportar intervenção técnica do helpdesk via rede IP para atualização de BIOS, configuração de SETUP (CMOS) e boot remoto para execução de rotinas de diagnóstico, mesmo se o sistema operacional estiver inoperante.As configurações das funcionalidades de gerenciamento presentes na placa-mãe deverão ser feitas sem a necessidade de intervenção presencial à máquina, mesmo com o sistema operacional inoperante.Permitir acesso remoto via hardware através de conexão TCP/IP, à interface gráfica (KVM – Keyboard Vídeo Mouse over IP), com controle total de teclado e mouse, independente do estado, tipo e versão do sistema operacional instalado no equipamento ofertado, com controle remoto total da BIOS.O equipamento deve permitir o gerenciamento remoto via hardware independente do sistema operacional, como acesso à BIOS, visualização remota do POST da máquina e inicialização do equipamento a partir de mídia externa e imagem (ISO ou IMG) a partir da console do administrador localizada em compartilhamento na rede.PLACA MÃEA placa mãe deve ser fabricada pelo próprio fabricante do microcomputador ou projetadas especificamente para o equipamento com direitos Copyright, não sendo aceito placas de livre comercialização no mercado, nem em regime de OEM;Deverá possuir, no mínimo, chipset Q670 ou AMD PRO 500;Sistema de detecção de intrusão de chassis, com acionador instalado no gabinete, sem adaptações; Deverá possuir, no mínimo, 02 (dois) slots M.2 para armazenamento.Possuir módulo TPM (Trusted Platform Module) versão 2.0 ou superior instalado de fábrica integrado a placa-mãe destinado ao armazenamento de senhas, certificados digitais e chaves criptográficas em conformidade com as especificações do Trusted Computing Group.ARMAZENAMENTODeverá possuir, no mínimo, 512GB do tipo SSD e tecnologia NVMe M.2.CONTROLADORA DE REDE GIGABIT ETHERNET:Deverá possuir, no mínimo, 01 (uma) interface de rede compatível com Ethernet, sendo do tipo "onboard" ou através de placa adaptadora. Possuir velocidades de comunicação de 10/100/1000Mbps.Deverá possuir conector de rede do padrão RJ-45. Deverá suportar recurso WOL (Wake On LAN). 01 (uma) interface de rede wireless padrão 802.11 AX e bluetooth 5.1 Integrado.CONTROLADORA DE ÁUDIO:Controladora de som integradaPossuir alto-falante interno, com capacidade total de 4 Watt RMS ou superior, compatível com a controladora de som.CONECTIVIDADEDeverá possuir no mínimo 5 (cinco) portas USB Tipo A 3.2 e 01 (uma) porta USB Tipo C 3.2.Deverá possuir, no mínimo, duas interfaces de vídeo livres do tipo digital (HDMI ou DisplayPort), para suportar o uso de 2 telas adicionais, além da principal.TELAI integrada de no mínimo 23,8” polegadas Resolução Nativa 1920X1080 IPSBrilho mínimo 250 cd/m² Deve possuir ajuste de altura.Deverá possuir webcam FHD integrado ao monitor. Não serão aceitas soluções externas via USB ou adaptadores.TECLADOTeclado USB, com ajuste de inclinação, com 107 teclas, teclado numérico separado, padrão ABNT2. Deverá possuir proteção contra o derramamento de líquidos.A marca deverá ser igual à do fabricante do equipamento ofertado.MOUSEMouse ótico USB, de dois botões, e dispositivo de rolagem de tela, devendo possuir resolução mínima por hardware de 1600 DPI;A marca deverá ser igual à do fabricante do equipamento ofertado. Deverá acompanhar mouse pad do mesmo fabricante do equipamento.FONTE DE ALIMENTAÇÃODeverá ser interna ou externa, compatível ao gabinete e placa mãe.Fonte de alimentação com tensão de entrada 110/220 VAC, com potência máxima de 240 W.SISTEMA OPERACIONALDeverá vir instalado com o Sistema Operacional Microsoft Windows 11 Professional 64 bits devidamente licenciado.Os equipamentos deverão vir de fábrica com a imagem de instalação do sistema operacional e softwares customizada de acordo com a imagem previamente fornecida pela CONTRATANTE.SEGURANÇA E RASTREAMENTORequisitos de segurança remota/rastreamento/proteção dos dados:O equipamento ofertado deve possuir integrado dispositivo ou funcionalidade na BIOS operando em modo persistente com características de segurança avançada de rastreamento pela internet que, em caso de furto ou extravio acidental, permita recuperação e localização do mesmo e ainda execução das seguintes funcionalidades;Bloqueio do hardware, impossibilitando que o equipamento seja utilizado ou reutilizado em caso de substituição do HD;Envio de um comando remoto capaz de apagar todas as informações contidas no HD ou arquivos específicos;Gerar logs do histórico de locais em que o equipamento foi utilizado, mostrando em um mapa os endereços, data e hora da conexão;As funcionalidades descritas deverão ser ativadas remotamente através de um console web;Esse dispositivo ou funcionalidade no BIOS deverá operar em formato persistente, nativamente presente e pronto para ativação no equipamento ofertado com suporte por todo o período da garantia do hardware, através da aquisição de sua licença prevista na configuração inicial.A comprovação que o equipamento é compatível com a tecnologia acima solicitada, deverá ocorrer através do site da Absolute Software (https://www.absolute.com/engb/partners /compatibility) ou por site público de outro fabricante que execute comprovadamente as mesmas funcionalidades solicitadas;GARANTIA DO HARDWAREO conjunto de equipamento ofertado deverá possuir garantia de no mínimo 12 (doze) meses, prestada pelo fabricante, em horário comercial, a contar a partir da data do aceite do equipamento. O fabricante do equipamento deve possuir central de atendimento tipo (0800) para abertura dos chamados de garantia, comprometendo-se a manter registros dos mesmos constando a descrição do problema.Durante a garantia deverão ser substituídas, sem nenhum ônus adicional, peças ou partes defeituosas, salvo quando o defeito for provocado por uso indevido do equipamento, devidamente comprovado.A garantia não será afetada caso tenhamos a necessidade de instalar placas de rede locais, de fax-modem, interfaces específicas para acionamento de outros equipamentos, adicionar unidade de disco rígido bem como alterar a capacidade de memória, ressaltando que a garantia desses opcionais adicionados será de total responsabilidade do órgão.Durante o período de garantia, a assistência técnica deverá ser prestada, pelo fabricante dos equipamentos. Os “partnumbers/descrição de garantias adicionais que serão prestados pelo fabricante devem constar na proposta.No caso de o licitante não ser o próprio fabricante do equipamento, ele deverá apresentar declaração/certificado do fabricante, comprovando que o produto ofertado possui a garantia solicitada neste termo de referência;DOCUMENTAÇÃO OBRIGATÓRIAAs licitantes deverão apresentar descrição detalhada dos equipamentos ofertados junto com a proposta e anexar a respectiva documentação técnica, para comprovação das especificações técnicas mínimas. A proposta que não cumprir o disposto neste item será desclassificada.Comprovação de que os equipamentos ofertados possuem ferramentas online no site do fabricante para diagnóstico de problemas e banco de dados disponibilizado na Internet que permita obter a configuração de hardware e software ofertado, periféricos internos e drivers de instalação atualizados e disponíveis para download a partir do número de série dos mesmos, detecção automática de atualizações de drivers;O All-In-One ou computador mini e o monitor deve atender à norma IEC 60950 ou similar, o que deverá ser comprovado por meio de certificação emitida pelo Inmetro ou por Organismo de Certificação de Produto – OCP, acreditado pelo Inmetro, consoante o estabelecido nos Requisitos de Avaliação de Conformidade para Bens de Informática, aprovados pela Portaria n° 170, de 10 de abril de 2012, atestando-se a adequação do bem fornecido aos requisitos de segurança para usuário e instalaçõesO All-in-one ou computador mini ofertado deverá constar no Microsoft hardware compatibility list (HCL) para o sistema operacional Windows 10 Pro ou superior. A comprovação da compatibilidade será efetuada pela apresentação do documento hardware compatibility test report;O computador mini ou o All in One deve possuir certificação MIL-STD-810H, garantindo maior resistência e durabilidade do equipamento;O fabricante do microcomputador deve possuir Certificado ISO 9001 e 14001.O fabricante deverá fazer parte da lista de membros do DMTF nas categorias board ou leadership, comprovado através de certificação;O fabricante deverá possuir certificado de Regularidade emitido pela CTF/APP (Cadastro Técnico Federal de Atividades Potencialmente Poluidoras e Utilizadoras de Recursos Ambientais) de acordo com as normas ambientais sob controle e fiscalização do IbamaDeverá ser apresentado na proposta, documento com a indicação da Assistência Técnica ou autorizada do Fabricante.</t>
+  </si>
+  <si>
+    <t>Processador forte e de alto desempenho: Este tablet Android inteligente está equipado com o mais recente sistema Android 12.0, O poderoso processador de 8 núcleos, 2.0GHz faz com que os aplicativos funcionem mais rápido e suave, oferece-lhe uma experiência rápida e fluente de entretenimento.2 em 1 Tablet com teclado: Este pacote de tablet Android 12 é uma combinação perfeita, 10 polegadas Tablet conectar com um teclado e mouse Bluetooth sem fio, com uma capa protetora, 2 em 1 tablet pode atender a todas as suas necessidades.Este tablet está equipado com 6GB de RAM, 128GB ROM, suporta expansão de capacidade de 256GB, leve, mas excelente, permite que você baixe um grande número de aplicativos da Google Play Store e se divirta com eles. Com este tablet leve, você pode manter todos os seus multimídias favoritos com você onde quer que vá, como e-mails, fotos, jogos, música, vídeos, eBook, etc.Equipado com bateria de lítio de 6500mAh, o tablet pode ficar em espera por até 3 dias e reproduzir vídeo por até 3-5 horas. Carregue facilmente através da porta USB Type-C e tenha a certeza de que a bateria durará. Com uma porta Type-C e um conector de fone de ouvido de 3,5 mm, este tablet Android oferece opções de conectividade convenientes para todos os seus dispositivos.</t>
+  </si>
+  <si>
+    <t>[RENDIMENTO] Imprima até 12.000 páginas com tintas inclusas na caixa [FUNÇÕES] Imprimir, copiar, digitaliza[CONECTIVIDADE] Impressão Duplex Automática. Wi-Fi com auto-recuperação e que facilitam a impressão desde qualquer lugar.Dimensões do produto 42P x 36,4L x 19A centímetrosTamanho máximo da mídia da impressora A4Tipo de scanner Alimentador de folhasTamanho da folha A4; A5; A6; B5 (JIS); Envelope (DL, C5, C6, Chou #3, Chou #4); Cartão (Hagaki, Ofuku Hagaki); Tamanho personalizado 88.9 x 127 mm to 215.9 x 355.6 mmImpressão frente e verso SimCertificação ANATEL: 07621-19-02585Formato Tudo em umTipo de conexão Wi-FiEtiqueta Nacional de Eficiência Energética (ENCE)Fonte de alimentação Elétrico com fioSistema operacional Mac OS 10 15 Catalina, Mac OS 11 Big Sur, macOS 10.14 Mojave, Windows 7,Windows 11, Windows 10Número de unidades 1Peso do produto 6,4 KilogramsNúmero do modelo 724Funciona a bateria ou pilha? Não</t>
   </si>
   <si>
     <t>Unidade</t>
@@ -530,20 +500,17 @@
       <c r="D2">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2">
+        <v>71422.2</v>
+      </c>
+      <c r="G2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -559,20 +526,20 @@
       <c r="D3">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3">
+        <v>4822</v>
+      </c>
+      <c r="F3">
+        <v>24110</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -588,20 +555,20 @@
       <c r="D4">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4">
+        <v>5191.55</v>
+      </c>
+      <c r="F4">
+        <v>25957.75</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
         <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -617,20 +584,20 @@
       <c r="D5">
         <v>5</v>
       </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
+      <c r="E5">
+        <v>989.4299999999999</v>
+      </c>
+      <c r="F5">
+        <v>4947.15</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -646,20 +613,20 @@
       <c r="D6">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
+      <c r="E6">
+        <v>1624.73</v>
+      </c>
+      <c r="F6">
+        <v>4874.19</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
